--- a/Excel Sheets/papers with species.xlsx
+++ b/Excel Sheets/papers with species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3F27273-7F18-42A4-B1C9-15368170BD3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680F2E54-B38E-462B-B6AC-7983252AD58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57330" yWindow="-270" windowWidth="19740" windowHeight="15300" xr2:uid="{D56AC05C-2D48-4B74-B2C2-7B90321161D8}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="1248">
   <si>
     <t>Authors</t>
   </si>
@@ -3300,9 +3300,6 @@
     <t>gallus domesticas</t>
   </si>
   <si>
-    <t>familiaris</t>
-  </si>
-  <si>
     <t>Gambusia</t>
   </si>
   <si>
@@ -3453,9 +3450,6 @@
     <t>Cyanistes</t>
   </si>
   <si>
-    <t>chameleon(2)</t>
-  </si>
-  <si>
     <t>spiders</t>
   </si>
   <si>
@@ -3547,6 +3541,264 @@
   </si>
   <si>
     <t>decresii</t>
+  </si>
+  <si>
+    <t>Amatitlania</t>
+  </si>
+  <si>
+    <t>siquia</t>
+  </si>
+  <si>
+    <t>Mbuna</t>
+  </si>
+  <si>
+    <t>johanni</t>
+  </si>
+  <si>
+    <t>Papio</t>
+  </si>
+  <si>
+    <t>anubis</t>
+  </si>
+  <si>
+    <t>Mchenga</t>
+  </si>
+  <si>
+    <t>conophoros</t>
+  </si>
+  <si>
+    <t>Anemonia</t>
+  </si>
+  <si>
+    <t>alicemartinae</t>
+  </si>
+  <si>
+    <t>Astronotus</t>
+  </si>
+  <si>
+    <t>oceilatus</t>
+  </si>
+  <si>
+    <t>nigrofasciatum</t>
+  </si>
+  <si>
+    <t>Tachycineta</t>
+  </si>
+  <si>
+    <t>bicolor</t>
+  </si>
+  <si>
+    <t>prasina</t>
+  </si>
+  <si>
+    <t>Maylandia</t>
+  </si>
+  <si>
+    <t>emmiltos</t>
+  </si>
+  <si>
+    <t>Evarcha</t>
+  </si>
+  <si>
+    <t>culicivora</t>
+  </si>
+  <si>
+    <t>Labrus</t>
+  </si>
+  <si>
+    <t>mixtus</t>
+  </si>
+  <si>
+    <t>Haplochromine</t>
+  </si>
+  <si>
+    <t>Hetaerina</t>
+  </si>
+  <si>
+    <t>titia</t>
+  </si>
+  <si>
+    <t>damselfly</t>
+  </si>
+  <si>
+    <t>Caracara</t>
+  </si>
+  <si>
+    <t>cheriway</t>
+  </si>
+  <si>
+    <t>variatus</t>
+  </si>
+  <si>
+    <t>hypoleuca</t>
+  </si>
+  <si>
+    <t>Thalassoma</t>
+  </si>
+  <si>
+    <t>bifasciatum</t>
+  </si>
+  <si>
+    <t>Psammodromus</t>
+  </si>
+  <si>
+    <t>algirus</t>
+  </si>
+  <si>
+    <t>Cercopithecus</t>
+  </si>
+  <si>
+    <t>aethiops sabaeus</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>Mnais</t>
+  </si>
+  <si>
+    <t>costalis</t>
+  </si>
+  <si>
+    <t>Lagopus</t>
+  </si>
+  <si>
+    <t>lagopus</t>
+  </si>
+  <si>
+    <t>flaviijosephi</t>
+  </si>
+  <si>
+    <t>Acrocephalus</t>
+  </si>
+  <si>
+    <t>arundinaceus</t>
+  </si>
+  <si>
+    <t>Setophaga</t>
+  </si>
+  <si>
+    <t>pensylvanica</t>
+  </si>
+  <si>
+    <t>Melanopareia</t>
+  </si>
+  <si>
+    <t>torquata</t>
+  </si>
+  <si>
+    <t>Phoenicurus</t>
+  </si>
+  <si>
+    <t>ochruros</t>
+  </si>
+  <si>
+    <t>Serinus</t>
+  </si>
+  <si>
+    <t>serinus</t>
+  </si>
+  <si>
+    <t>amabilis</t>
+  </si>
+  <si>
+    <t>Anas</t>
+  </si>
+  <si>
+    <t>platyrhynchos</t>
+  </si>
+  <si>
+    <t>melisellensis</t>
+  </si>
+  <si>
+    <t>astorquii</t>
+  </si>
+  <si>
+    <t>orientalis</t>
+  </si>
+  <si>
+    <t>conspersus</t>
+  </si>
+  <si>
+    <t>Manacus</t>
+  </si>
+  <si>
+    <t>candei</t>
+  </si>
+  <si>
+    <t>Astyanax</t>
+  </si>
+  <si>
+    <t>Ctenophortis</t>
+  </si>
+  <si>
+    <t>Accipiter</t>
+  </si>
+  <si>
+    <t>nisus</t>
+  </si>
+  <si>
+    <t>Zootoca</t>
+  </si>
+  <si>
+    <t>vivipara</t>
+  </si>
+  <si>
+    <t>Phasianus</t>
+  </si>
+  <si>
+    <t>colchicus</t>
+  </si>
+  <si>
+    <t>Carpodacus</t>
+  </si>
+  <si>
+    <t>Lutjanus</t>
+  </si>
+  <si>
+    <t>analis</t>
+  </si>
+  <si>
+    <t>salar</t>
+  </si>
+  <si>
+    <t>Metriaclima</t>
+  </si>
+  <si>
+    <t>mbenjii</t>
+  </si>
+  <si>
+    <t>dimerus</t>
+  </si>
+  <si>
+    <t>Progne</t>
+  </si>
+  <si>
+    <t>subis</t>
+  </si>
+  <si>
+    <t>Emberiza</t>
+  </si>
+  <si>
+    <t>citrinella</t>
+  </si>
+  <si>
+    <t>bied</t>
+  </si>
+  <si>
+    <t>Felis</t>
+  </si>
+  <si>
+    <t>catus</t>
+  </si>
+  <si>
+    <t>Neochmia</t>
+  </si>
+  <si>
+    <t>phaeton</t>
+  </si>
+  <si>
+    <t>lupus familiaris</t>
   </si>
 </sst>
 </file>
@@ -3914,10 +4166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8B5660-A29B-44D5-9191-B1BD6D302F54}">
-  <dimension ref="A1:P231"/>
+  <dimension ref="A1:R231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3932,7 +4184,7 @@
     <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3981,8 +4233,14 @@
       <c r="P1" s="1" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+      <c r="Q1" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A2" s="1" t="s">
         <v>455</v>
       </c>
@@ -4001,25 +4259,34 @@
       <c r="F2" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1029</v>
+      </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">SUMPRODUCT((LEN(I2:I230)-LEN(SUBSTITUTE(I2:I230,J1,"")))/LEN(J1))</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">SUMPRODUCT((LEN(I2:I230)-LEN(SUBSTITUTE(I2:I230,K1,"")))/LEN(K1))</f>
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">SUMPRODUCT((LEN(I2:I230)-LEN(SUBSTITUTE(I2:I230,L1,"")))/LEN(L1))</f>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2">SUMPRODUCT((LEN(I2:I230)-LEN(SUBSTITUTE(I2:I230,M1,"")))/LEN(M1))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2">SUMPRODUCT((LEN(I2:I230)-LEN(SUBSTITUTE(I2:I230,N1,"")))/LEN(N1))</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2">SUMPRODUCT((LEN(I2:I230)-LEN(SUBSTITUTE(I2:I230,O1,"")))/LEN(O1))</f>
@@ -4027,10 +4294,18 @@
       </c>
       <c r="P2" cm="1">
         <f t="array" ref="P2">SUMPRODUCT((LEN(I2:I230)-LEN(SUBSTITUTE(I2:I230,P1,"")))/LEN(P1))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+        <v>7</v>
+      </c>
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT((LEN(I2:I230)-LEN(SUBSTITUTE(I2:I230,Q1,"")))/LEN(Q1))</f>
+        <v>2</v>
+      </c>
+      <c r="R2" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT((LEN(I2:I230)-LEN(SUBSTITUTE(I2:I230,R1,"")))/LEN(R1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A3" s="1" t="s">
         <v>191</v>
       </c>
@@ -4049,15 +4324,20 @@
       <c r="F3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="L3" t="s">
-        <v>1132</v>
+      <c r="G3" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>988</v>
       </c>
       <c r="M3" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A4" s="1" t="s">
         <v>652</v>
       </c>
@@ -4076,14 +4356,20 @@
       <c r="F4" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="L4" t="s">
-        <v>1130</v>
+      <c r="G4" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>991</v>
       </c>
       <c r="M4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A5" s="1" t="s">
         <v>725</v>
       </c>
@@ -4102,11 +4388,20 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>988</v>
+      </c>
       <c r="M5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A6" s="1" t="s">
         <v>258</v>
       </c>
@@ -4138,7 +4433,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A7" s="1" t="s">
         <v>922</v>
       </c>
@@ -4167,10 +4462,10 @@
         <v>988</v>
       </c>
       <c r="M7" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A8" s="1" t="s">
         <v>222</v>
       </c>
@@ -4189,8 +4484,20 @@
       <c r="F8" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+      <c r="G8" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A9" s="1" t="s">
         <v>310</v>
       </c>
@@ -4219,7 +4526,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A10" s="1" t="s">
         <v>640</v>
       </c>
@@ -4238,8 +4545,17 @@
       <c r="F10" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+      <c r="G10" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A11" s="1" t="s">
         <v>576</v>
       </c>
@@ -4258,8 +4574,17 @@
       <c r="F11" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+      <c r="G11" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A12" s="1" t="s">
         <v>161</v>
       </c>
@@ -4288,7 +4613,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A13" s="1" t="s">
         <v>875</v>
       </c>
@@ -4307,8 +4632,17 @@
       <c r="F13" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+      <c r="G13" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4337,7 +4671,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A15" s="1" t="s">
         <v>834</v>
       </c>
@@ -4356,8 +4690,17 @@
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.8">
+      <c r="G15" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.8">
       <c r="A16" s="1" t="s">
         <v>745</v>
       </c>
@@ -4375,6 +4718,15 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>747</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.8">
@@ -4396,6 +4748,15 @@
       <c r="F17" s="1" t="s">
         <v>731</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A18" s="1" t="s">
@@ -4416,6 +4777,15 @@
       <c r="F18" s="1" t="s">
         <v>695</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A19" s="1" t="s">
@@ -4523,6 +4893,15 @@
       <c r="F22" s="1" t="s">
         <v>647</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A23" s="1" t="s">
@@ -4572,6 +4951,15 @@
       <c r="F24" s="1" t="s">
         <v>821</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A25" s="1" t="s">
@@ -4592,6 +4980,15 @@
       <c r="F25" s="1" t="s">
         <v>627</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A26" s="3" t="s">
@@ -4763,6 +5160,18 @@
       <c r="F31" s="1" t="s">
         <v>724</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A32" s="1" t="s">
@@ -4783,8 +5192,17 @@
       <c r="F32" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G32" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A33" s="1" t="s">
         <v>888</v>
       </c>
@@ -4803,8 +5221,20 @@
       <c r="F33" s="1" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G33" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A34" s="1" t="s">
         <v>943</v>
       </c>
@@ -4823,8 +5253,17 @@
       <c r="F34" s="1" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G34" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A35" s="1" t="s">
         <v>319</v>
       </c>
@@ -4853,7 +5292,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A36" s="1" t="s">
         <v>589</v>
       </c>
@@ -4882,7 +5321,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
@@ -4911,7 +5350,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -4940,7 +5379,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A39" s="1" t="s">
         <v>593</v>
       </c>
@@ -4969,7 +5408,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A40" s="1" t="s">
         <v>769</v>
       </c>
@@ -4998,7 +5437,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A41" s="1" t="s">
         <v>684</v>
       </c>
@@ -5017,8 +5456,17 @@
       <c r="F41" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G41" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A42" s="3" t="s">
         <v>157</v>
       </c>
@@ -5047,7 +5495,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A43" s="1" t="s">
         <v>471</v>
       </c>
@@ -5076,7 +5524,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A44" s="1" t="s">
         <v>384</v>
       </c>
@@ -5105,7 +5553,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A45" s="1" t="s">
         <v>551</v>
       </c>
@@ -5134,7 +5582,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A46" s="1" t="s">
         <v>324</v>
       </c>
@@ -5153,8 +5601,17 @@
       <c r="F46" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G46" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A47" s="1" t="s">
         <v>616</v>
       </c>
@@ -5173,8 +5630,17 @@
       <c r="F47" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G47" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A48" s="1" t="s">
         <v>901</v>
       </c>
@@ -5193,8 +5659,20 @@
       <c r="F48" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G48" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A49" s="1" t="s">
         <v>897</v>
       </c>
@@ -5213,8 +5691,17 @@
       <c r="F49" s="1" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G49" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A50" s="1" t="s">
         <v>547</v>
       </c>
@@ -5243,7 +5730,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A51" s="1" t="s">
         <v>852</v>
       </c>
@@ -5262,8 +5749,20 @@
       <c r="F51" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G51" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A52" s="1" t="s">
         <v>388</v>
       </c>
@@ -5292,7 +5791,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A53" s="1" t="s">
         <v>242</v>
       </c>
@@ -5321,7 +5820,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A54" s="1" t="s">
         <v>284</v>
       </c>
@@ -5340,8 +5839,17 @@
       <c r="F54" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G54" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A55" s="1" t="s">
         <v>656</v>
       </c>
@@ -5360,8 +5868,17 @@
       <c r="F55" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G55" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A56" s="1" t="s">
         <v>883</v>
       </c>
@@ -5380,8 +5897,17 @@
       <c r="F56" s="1" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G56" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A57" s="1" t="s">
         <v>830</v>
       </c>
@@ -5400,8 +5926,17 @@
       <c r="F57" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G57" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A58" s="1" t="s">
         <v>418</v>
       </c>
@@ -5430,7 +5965,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A59" s="1" t="s">
         <v>679</v>
       </c>
@@ -5449,8 +5984,17 @@
       <c r="F59" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G59" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A60" s="1" t="s">
         <v>814</v>
       </c>
@@ -5469,8 +6013,17 @@
       <c r="F60" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G60" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A61" s="1" t="s">
         <v>529</v>
       </c>
@@ -5499,7 +6052,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A62" s="1" t="s">
         <v>147</v>
       </c>
@@ -5528,7 +6081,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A63" s="1" t="s">
         <v>701</v>
       </c>
@@ -5547,8 +6100,17 @@
       <c r="F63" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G63" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A64" s="1" t="s">
         <v>787</v>
       </c>
@@ -5566,6 +6128,15 @@
       </c>
       <c r="F64" s="1" t="s">
         <v>790</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.8">
@@ -5616,6 +6187,15 @@
       <c r="F66" s="1" t="s">
         <v>955</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A67" s="1" t="s">
@@ -5665,6 +6245,15 @@
       <c r="F68" s="1" t="s">
         <v>507</v>
       </c>
+      <c r="G68" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A69" s="1" t="s">
@@ -5685,6 +6274,15 @@
       <c r="F69" s="1" t="s">
         <v>786</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A70" s="3" t="s">
@@ -5734,6 +6332,18 @@
       <c r="F71" s="1" t="s">
         <v>933</v>
       </c>
+      <c r="G71" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A72" s="1" t="s">
@@ -5754,6 +6364,15 @@
       <c r="F72" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="G72" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A73" s="1" t="s">
@@ -5803,6 +6422,15 @@
       <c r="F74" s="1" t="s">
         <v>825</v>
       </c>
+      <c r="G74" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A75" s="1" t="s">
@@ -5942,6 +6570,15 @@
       <c r="F79" s="1" t="s">
         <v>913</v>
       </c>
+      <c r="G79" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="80" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A80" s="1" t="s">
@@ -5962,8 +6599,17 @@
       <c r="F80" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G80" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A81" s="1" t="s">
         <v>964</v>
       </c>
@@ -5992,7 +6638,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A82" s="1" t="s">
         <v>422</v>
       </c>
@@ -6021,7 +6667,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A83" s="1" t="s">
         <v>512</v>
       </c>
@@ -6040,8 +6686,17 @@
       <c r="F83" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G83" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A84" s="1" t="s">
         <v>271</v>
       </c>
@@ -6070,7 +6725,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A85" s="1" t="s">
         <v>688</v>
       </c>
@@ -6089,8 +6744,17 @@
       <c r="F85" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G85" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A86" s="1" t="s">
         <v>114</v>
       </c>
@@ -6119,7 +6783,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A87" s="1" t="s">
         <v>301</v>
       </c>
@@ -6148,7 +6812,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A88" s="1" t="s">
         <v>752</v>
       </c>
@@ -6177,7 +6841,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A89" s="1" t="s">
         <v>849</v>
       </c>
@@ -6196,8 +6860,17 @@
       <c r="F89" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G89" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A90" s="1" t="s">
         <v>628</v>
       </c>
@@ -6216,8 +6889,14 @@
       <c r="F90" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G90" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A91" s="1" t="s">
         <v>516</v>
       </c>
@@ -6236,8 +6915,17 @@
       <c r="F91" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G91" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A92" s="1" t="s">
         <v>867</v>
       </c>
@@ -6256,8 +6944,20 @@
       <c r="F92" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G92" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A93" s="1" t="s">
         <v>871</v>
       </c>
@@ -6276,8 +6976,17 @@
       <c r="F93" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G93" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A94" s="1" t="s">
         <v>345</v>
       </c>
@@ -6306,7 +7015,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A95" s="1" t="s">
         <v>288</v>
       </c>
@@ -6335,7 +7044,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A96" s="1" t="s">
         <v>705</v>
       </c>
@@ -6353,6 +7062,15 @@
       </c>
       <c r="F96" s="1" t="s">
         <v>708</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.8">
@@ -6490,6 +7208,15 @@
       <c r="F101" s="1" t="s">
         <v>937</v>
       </c>
+      <c r="G101" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A102" s="1" t="s">
@@ -6510,6 +7237,15 @@
       <c r="F102" s="1" t="s">
         <v>782</v>
       </c>
+      <c r="G102" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A103" s="1" t="s">
@@ -6559,6 +7295,15 @@
       <c r="F104" s="1" t="s">
         <v>412</v>
       </c>
+      <c r="G104" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A105" s="1" t="s">
@@ -6612,7 +7357,7 @@
         <v>1030</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>1081</v>
+        <v>1247</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>1029</v>
@@ -6637,6 +7382,15 @@
       <c r="F107" s="1" t="s">
         <v>499</v>
       </c>
+      <c r="G107" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A108" s="1" t="s">
@@ -6657,6 +7411,15 @@
       <c r="F108" s="1" t="s">
         <v>503</v>
       </c>
+      <c r="G108" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A109" s="1" t="s">
@@ -6677,6 +7440,15 @@
       <c r="F109" s="1" t="s">
         <v>795</v>
       </c>
+      <c r="G109" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A110" s="1" t="s">
@@ -6726,6 +7498,15 @@
       <c r="F111" s="1" t="s">
         <v>805</v>
       </c>
+      <c r="G111" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A112" s="1" t="s">
@@ -6747,10 +7528,10 @@
         <v>94</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>988</v>
@@ -6775,6 +7556,15 @@
       <c r="F113" s="1" t="s">
         <v>845</v>
       </c>
+      <c r="G113" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="114" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A114" s="1" t="s">
@@ -6795,6 +7585,15 @@
       <c r="F114" s="1" t="s">
         <v>951</v>
       </c>
+      <c r="G114" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="115" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A115" s="1" t="s">
@@ -6815,6 +7614,15 @@
       <c r="F115" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G115" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="116" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A116" s="1" t="s">
@@ -6839,7 +7647,7 @@
         <v>1021</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>991</v>
@@ -6865,10 +7673,10 @@
         <v>300</v>
       </c>
       <c r="G117" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>988</v>
@@ -6893,6 +7701,15 @@
       <c r="F118" s="1" t="s">
         <v>909</v>
       </c>
+      <c r="G118" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="119" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A119" s="1" t="s">
@@ -6913,6 +7730,15 @@
       <c r="F119" s="1" t="s">
         <v>917</v>
       </c>
+      <c r="G119" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="120" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A120" s="1" t="s">
@@ -6933,6 +7759,15 @@
       <c r="F120" s="1" t="s">
         <v>921</v>
       </c>
+      <c r="G120" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="121" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A121" s="1" t="s">
@@ -6953,6 +7788,15 @@
       <c r="F121" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="G121" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A122" s="1" t="s">
@@ -6973,6 +7817,15 @@
       <c r="F122" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="G122" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="123" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A123" s="1" t="s">
@@ -6993,6 +7846,15 @@
       <c r="F123" s="1" t="s">
         <v>929</v>
       </c>
+      <c r="G123" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A124" s="1" t="s">
@@ -7014,16 +7876,16 @@
         <v>40</v>
       </c>
       <c r="G124" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16" x14ac:dyDescent="0.8">
@@ -7046,17 +7908,15 @@
         <v>295</v>
       </c>
       <c r="G125" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="I125" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>1092</v>
-      </c>
+      <c r="J125" s="1"/>
     </row>
     <row r="126" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A126" s="2" t="s">
@@ -7077,6 +7937,15 @@
       <c r="F126" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="G126" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="127" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A127" s="1" t="s">
@@ -7098,17 +7967,15 @@
         <v>751</v>
       </c>
       <c r="G127" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="I127" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>1092</v>
-      </c>
+      <c r="J127" s="1"/>
     </row>
     <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A128" s="1" t="s">
@@ -7130,16 +7997,16 @@
         <v>332</v>
       </c>
       <c r="G128" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.8">
@@ -7162,10 +8029,10 @@
         <v>607</v>
       </c>
       <c r="G129" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>991</v>
@@ -7191,10 +8058,10 @@
         <v>566</v>
       </c>
       <c r="G130" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>991</v>
@@ -7220,10 +8087,10 @@
         <v>599</v>
       </c>
       <c r="G131" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>991</v>
@@ -7248,6 +8115,15 @@
       <c r="F132" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G132" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A133" s="1" t="s">
@@ -7268,6 +8144,15 @@
       <c r="F133" s="1" t="s">
         <v>848</v>
       </c>
+      <c r="G133" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A134" s="1" t="s">
@@ -7288,6 +8173,15 @@
       <c r="F134" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="G134" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A135" s="1" t="s">
@@ -7308,6 +8202,15 @@
       <c r="F135" s="1" t="s">
         <v>635</v>
       </c>
+      <c r="G135" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A136" s="1" t="s">
@@ -7328,6 +8231,15 @@
       <c r="F136" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G136" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A137" s="1" t="s">
@@ -7348,6 +8260,15 @@
       <c r="F137" s="1" t="s">
         <v>495</v>
       </c>
+      <c r="G137" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A138" s="1" t="s">
@@ -7368,6 +8289,15 @@
       <c r="F138" s="1" t="s">
         <v>882</v>
       </c>
+      <c r="G138" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A139" s="1" t="s">
@@ -7389,10 +8319,10 @@
         <v>588</v>
       </c>
       <c r="G139" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>996</v>
@@ -7417,6 +8347,15 @@
       <c r="F140" s="1" t="s">
         <v>615</v>
       </c>
+      <c r="G140" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A141" s="1" t="s">
@@ -7437,6 +8376,15 @@
       <c r="F141" s="1" t="s">
         <v>511</v>
       </c>
+      <c r="G141" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A142" s="1" t="s">
@@ -7457,6 +8405,15 @@
       <c r="F142" s="1" t="s">
         <v>664</v>
       </c>
+      <c r="G142" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A143" s="1" t="s">
@@ -7478,10 +8435,10 @@
         <v>309</v>
       </c>
       <c r="G143" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>1102</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>996</v>
@@ -7506,6 +8463,15 @@
       <c r="F144" s="1" t="s">
         <v>777</v>
       </c>
+      <c r="G144" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="145" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A145" s="1" t="s">
@@ -7527,16 +8493,16 @@
         <v>168</v>
       </c>
       <c r="G145" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H145" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>1104</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16" x14ac:dyDescent="0.8">
@@ -7558,6 +8524,12 @@
       <c r="F146" s="1" t="s">
         <v>896</v>
       </c>
+      <c r="G146" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="147" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A147" s="1" t="s">
@@ -7579,10 +8551,10 @@
         <v>122</v>
       </c>
       <c r="G147" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H147" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>988</v>
@@ -7611,7 +8583,7 @@
         <v>1068</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>988</v>
@@ -7636,6 +8608,12 @@
       <c r="F149" s="1" t="s">
         <v>971</v>
       </c>
+      <c r="G149" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="150" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A150" s="1" t="s">
@@ -7657,10 +8635,10 @@
         <v>542</v>
       </c>
       <c r="G150" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H150" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>1110</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>996</v>
@@ -7685,6 +8663,15 @@
       <c r="F151" s="1" t="s">
         <v>700</v>
       </c>
+      <c r="G151" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="152" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A152" s="1" t="s">
@@ -7706,10 +8693,10 @@
         <v>36</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>991</v>
@@ -7763,6 +8750,15 @@
       <c r="F154" s="1" t="s">
         <v>370</v>
       </c>
+      <c r="G154" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="155" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A155" s="1" t="s">
@@ -7783,6 +8779,15 @@
       <c r="F155" s="1" t="s">
         <v>813</v>
       </c>
+      <c r="G155" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="156" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A156" s="1" t="s">
@@ -7804,10 +8809,10 @@
         <v>241</v>
       </c>
       <c r="G156" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H156" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>988</v>
@@ -7836,7 +8841,7 @@
         <v>1003</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>988</v>
@@ -7862,10 +8867,10 @@
         <v>361</v>
       </c>
       <c r="G158" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>991</v>
@@ -7894,7 +8899,7 @@
         <v>1066</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>991</v>
@@ -7920,7 +8925,7 @@
         <v>639</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>995</v>
@@ -7948,6 +8953,15 @@
       <c r="F161" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="G161" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="162" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A162" s="1" t="s">
@@ -7969,10 +8983,10 @@
         <v>378</v>
       </c>
       <c r="G162" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>1120</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>996</v>
@@ -7997,6 +9011,15 @@
       <c r="F163" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G163" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="164" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A164" s="1" t="s">
@@ -8018,16 +9041,16 @@
         <v>253</v>
       </c>
       <c r="G164" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H164" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>1122</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16" x14ac:dyDescent="0.8">
@@ -8049,6 +9072,15 @@
       <c r="F165" s="1" t="s">
         <v>651</v>
       </c>
+      <c r="G165" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="166" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A166" s="1" t="s">
@@ -8069,6 +9101,15 @@
       <c r="F166" s="1" t="s">
         <v>667</v>
       </c>
+      <c r="G166" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="167" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A167" s="1" t="s">
@@ -8119,10 +9160,10 @@
         <v>603</v>
       </c>
       <c r="G168" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H168" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>1125</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>996</v>
@@ -8148,10 +9189,10 @@
         <v>318</v>
       </c>
       <c r="G169" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>1127</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>996</v>
@@ -8177,17 +9218,15 @@
         <v>270</v>
       </c>
       <c r="G170" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H170" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="I170" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>1130</v>
-      </c>
+      <c r="J170" s="1"/>
     </row>
     <row r="171" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A171" s="1" t="s">
@@ -8209,7 +9248,7 @@
         <v>400</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>1045</v>
@@ -8270,7 +9309,7 @@
         <v>1066</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>991</v>
@@ -8296,10 +9335,10 @@
         <v>431</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>988</v>
@@ -8325,10 +9364,10 @@
         <v>31</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>988</v>
@@ -8354,10 +9393,10 @@
         <v>11</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>996</v>
@@ -8382,6 +9421,15 @@
       <c r="F177" s="1" t="s">
         <v>678</v>
       </c>
+      <c r="G177" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="178" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A178" s="1" t="s">
@@ -8431,6 +9479,15 @@
       <c r="F179" s="1" t="s">
         <v>449</v>
       </c>
+      <c r="G179" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A180" s="1" t="s">
@@ -8451,6 +9508,15 @@
       <c r="F180" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="G180" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="181" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A181" s="1" t="s">
@@ -8472,7 +9538,7 @@
         <v>137</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>993</v>
@@ -8504,7 +9570,7 @@
         <v>1066</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>991</v>
@@ -8533,7 +9599,7 @@
         <v>1066</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>991</v>
@@ -8558,6 +9624,12 @@
       <c r="F184" s="1" t="s">
         <v>963</v>
       </c>
+      <c r="G184" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="185" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A185" s="1" t="s">
@@ -8579,10 +9651,10 @@
         <v>558</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>1029</v>
@@ -8608,16 +9680,16 @@
         <v>435</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="16" x14ac:dyDescent="0.8">
@@ -8639,6 +9711,15 @@
       <c r="F187" s="1" t="s">
         <v>841</v>
       </c>
+      <c r="G187" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A188" s="1" t="s">
@@ -8660,10 +9741,10 @@
         <v>146</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>988</v>
@@ -8689,10 +9770,10 @@
         <v>537</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>991</v>
@@ -8717,6 +9798,12 @@
       <c r="F190" s="1" t="s">
         <v>528</v>
       </c>
+      <c r="G190" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="191" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A191" s="1" t="s">
@@ -8741,7 +9828,7 @@
         <v>1066</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>991</v>
@@ -8766,8 +9853,17 @@
       <c r="F192" s="1" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G192" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A193" s="1" t="s">
         <v>200</v>
       </c>
@@ -8786,8 +9882,17 @@
       <c r="F193" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G193" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A194" s="1" t="s">
         <v>717</v>
       </c>
@@ -8806,8 +9911,17 @@
       <c r="F194" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G194" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A195" s="1" t="s">
         <v>668</v>
       </c>
@@ -8826,8 +9940,17 @@
       <c r="F195" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G195" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A196" s="1" t="s">
         <v>806</v>
       </c>
@@ -8846,8 +9969,17 @@
       <c r="F196" s="1" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G196" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A197" s="1" t="s">
         <v>169</v>
       </c>
@@ -8870,13 +10002,13 @@
         <v>1021</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="198" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A198" s="1" t="s">
         <v>362</v>
       </c>
@@ -8905,7 +10037,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A199" s="1" t="s">
         <v>100</v>
       </c>
@@ -8934,7 +10066,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="200" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A200" s="1" t="s">
         <v>246</v>
       </c>
@@ -8963,7 +10095,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="201" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A201" s="1" t="s">
         <v>86</v>
       </c>
@@ -8983,16 +10115,16 @@
         <v>90</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="202" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A202" s="1" t="s">
         <v>938</v>
       </c>
@@ -9011,8 +10143,17 @@
       <c r="F202" s="1" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G202" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A203" s="1" t="s">
         <v>978</v>
       </c>
@@ -9031,8 +10172,20 @@
       <c r="F203" s="1" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G203" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A204" s="1" t="s">
         <v>337</v>
       </c>
@@ -9052,16 +10205,16 @@
         <v>340</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="205" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A205" s="1" t="s">
         <v>580</v>
       </c>
@@ -9081,16 +10234,16 @@
         <v>584</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="206" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A206" s="1" t="s">
         <v>413</v>
       </c>
@@ -9110,7 +10263,7 @@
         <v>417</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>1045</v>
@@ -9119,7 +10272,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+    <row r="207" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A207" s="1" t="s">
         <v>487</v>
       </c>
@@ -9138,8 +10291,17 @@
       <c r="F207" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="G207" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="16" x14ac:dyDescent="0.8">
       <c r="A208" s="1" t="s">
         <v>796</v>
       </c>
@@ -9157,6 +10319,15 @@
       </c>
       <c r="F208" s="1" t="s">
         <v>800</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.8">
@@ -9178,6 +10349,15 @@
       <c r="F209" s="1" t="s">
         <v>829</v>
       </c>
+      <c r="G209" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A210" s="1" t="s">
@@ -9199,10 +10379,10 @@
         <v>454</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>988</v>
@@ -9227,6 +10407,15 @@
       <c r="F211" s="1" t="s">
         <v>712</v>
       </c>
+      <c r="G211" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="212" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A212" s="1" t="s">
@@ -9248,10 +10437,10 @@
         <v>764</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>988</v>
@@ -9280,7 +10469,7 @@
         <v>1066</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>991</v>
@@ -9306,10 +10495,10 @@
         <v>623</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="I214" s="1" t="s">
         <v>991</v>
@@ -9334,6 +10523,15 @@
       <c r="F215" s="1" t="s">
         <v>524</v>
       </c>
+      <c r="G215" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A216" s="1" t="s">
@@ -9354,6 +10552,15 @@
       <c r="F216" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="G216" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="217" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A217" s="2" t="s">
@@ -9374,6 +10581,15 @@
       <c r="F217" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="G217" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="218" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A218" s="1" t="s">
@@ -9427,7 +10643,7 @@
         <v>1050</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>991</v>
@@ -9481,6 +10697,15 @@
       <c r="F221" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G221" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="222" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A222" s="1" t="s">
@@ -9502,10 +10727,10 @@
         <v>462</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>996</v>
@@ -9531,10 +10756,10 @@
         <v>439</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>996</v>
@@ -9560,10 +10785,10 @@
         <v>132</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>991</v>
@@ -9589,10 +10814,10 @@
         <v>212</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>991</v>
@@ -9675,6 +10900,15 @@
       <c r="F228" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="G228" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A229" s="1" t="s">
@@ -9695,6 +10929,15 @@
       <c r="F229" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="G229" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.8">
       <c r="A230" s="1" t="s">
@@ -9714,6 +10957,15 @@
       </c>
       <c r="F230" s="1" t="s">
         <v>221</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.75">
